--- a/docs/エクセルシフト表＿入力形式.xlsx
+++ b/docs/エクセルシフト表＿入力形式.xlsx
@@ -5,16 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hamakothsedjp-my.sharepoint.com/personal/ei2338_hamako-ths_ed_jp/Documents/デスクトップ/C#/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VShift-installer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="566" documentId="13_ncr:1_{1E8C066E-A3BE-4395-A1B6-1B7B914936DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7E020194-F3BC-4635-A1EA-573B14CA3117}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88B55E63-F874-472B-89EE-30A0DA76E4BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{45C06794-C8E8-4471-ACA0-6DCFDBA0D501}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{45C06794-C8E8-4471-ACA0-6DCFDBA0D501}"/>
   </bookViews>
   <sheets>
     <sheet name="形式" sheetId="11" r:id="rId1"/>
-    <sheet name="7" sheetId="7" r:id="rId2"/>
+    <sheet name="テンプレート" sheetId="12" r:id="rId2"/>
+    <sheet name="7" sheetId="7" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="60">
   <si>
     <t>終了時刻</t>
     <rPh sb="0" eb="4">
@@ -1022,7 +1023,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1137,6 +1138,54 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1155,15 +1204,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1179,45 +1219,6 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1226,6 +1227,54 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1571,12 +1620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69352082-118E-4EC6-92FA-2605FDE91B9D}">
   <dimension ref="A1:AJ95"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="10" topLeftCell="F11" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="B1" sqref="B1"/>
-      <selection pane="topRight" activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
-      <selection pane="bottomRight" activeCell="F3" sqref="F3:J3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1587,150 +1632,150 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.4">
-      <c r="F1" s="62" t="s">
+      <c r="A1" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="L1" s="62" t="s">
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="G1" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="R1" s="61" t="s">
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="M1" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="S1" s="61"/>
-      <c r="T1" s="61"/>
-      <c r="U1" s="61"/>
-      <c r="V1" s="61"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
     </row>
     <row r="2" spans="1:36" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="F2" s="44" t="s">
+      <c r="A2" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="46"/>
-      <c r="L2" s="63" t="s">
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="50"/>
+      <c r="G2" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-      <c r="R2" s="52" t="s">
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="M2" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="S2" s="52"/>
-      <c r="T2" s="52"/>
-      <c r="U2" s="52"/>
-      <c r="V2" s="52"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
     </row>
     <row r="3" spans="1:36" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="F3" s="44" t="s">
+      <c r="A3" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="46"/>
-      <c r="L3" s="63" t="s">
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="50"/>
+      <c r="G3" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="M3" s="63"/>
-      <c r="N3" s="63"/>
-      <c r="O3" s="63"/>
-      <c r="P3" s="63"/>
-      <c r="R3" s="61" t="s">
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="M3" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="S3" s="61"/>
-      <c r="T3" s="61"/>
-      <c r="U3" s="61"/>
-      <c r="V3" s="61"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47"/>
+      <c r="Q3" s="47"/>
     </row>
     <row r="4" spans="1:36" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="F4" s="47" t="s">
+      <c r="A4" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="49"/>
-      <c r="L4" s="63" t="s">
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="62"/>
+      <c r="G4" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="M4" s="63"/>
-      <c r="N4" s="63"/>
-      <c r="O4" s="63"/>
-      <c r="P4" s="63"/>
-      <c r="R4" s="53" t="s">
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="M4" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="S4" s="53"/>
-      <c r="T4" s="53"/>
-      <c r="U4" s="53"/>
-      <c r="V4" s="53"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="38"/>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.4">
-      <c r="F5" s="44" t="s">
+      <c r="A5" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="50"/>
+      <c r="G5" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
       <c r="J5" s="46"/>
-      <c r="L5" s="52" t="s">
-        <v>46</v>
-      </c>
-      <c r="M5" s="52"/>
-      <c r="N5" s="52"/>
-      <c r="O5" s="52"/>
-      <c r="P5" s="52"/>
-      <c r="R5" s="55" t="s">
+      <c r="K5" s="46"/>
+      <c r="M5" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="S5" s="56"/>
-      <c r="T5" s="56"/>
-      <c r="U5" s="56"/>
-      <c r="V5" s="57"/>
+      <c r="N5" s="41"/>
+      <c r="O5" s="41"/>
+      <c r="P5" s="41"/>
+      <c r="Q5" s="42"/>
     </row>
     <row r="6" spans="1:36" ht="131.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="F6" s="52" t="s">
+      <c r="A6" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="52"/>
-      <c r="L6" s="64" t="s">
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="G6" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="M6" s="64"/>
-      <c r="N6" s="64"/>
-      <c r="O6" s="64"/>
-      <c r="P6" s="64"/>
-      <c r="R6" s="58"/>
-      <c r="S6" s="59"/>
-      <c r="T6" s="59"/>
-      <c r="U6" s="59"/>
-      <c r="V6" s="60"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+      <c r="M6" s="43"/>
+      <c r="N6" s="44"/>
+      <c r="O6" s="44"/>
+      <c r="P6" s="44"/>
+      <c r="Q6" s="45"/>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.4">
-      <c r="F7" s="54" t="s">
+      <c r="A7" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="G7" s="54"/>
-      <c r="L7" s="54" t="s">
+      <c r="B7" s="39"/>
+      <c r="G7" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="M7" s="54"/>
+      <c r="H7" s="39"/>
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
@@ -1984,10 +2029,10 @@
       </c>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.4">
-      <c r="A13" s="38" t="s">
+      <c r="A13" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="41" t="s">
+      <c r="B13" s="57" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="2"/>
@@ -2062,8 +2107,8 @@
       </c>
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.4">
-      <c r="A14" s="39"/>
-      <c r="B14" s="42"/>
+      <c r="A14" s="55"/>
+      <c r="B14" s="58"/>
       <c r="C14" s="2"/>
       <c r="D14" s="18">
         <v>0.5</v>
@@ -2132,8 +2177,8 @@
       </c>
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.4">
-      <c r="A15" s="40"/>
-      <c r="B15" s="43"/>
+      <c r="A15" s="56"/>
+      <c r="B15" s="59"/>
       <c r="C15" s="2" t="s">
         <v>31</v>
       </c>
@@ -2204,10 +2249,10 @@
       </c>
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.4">
-      <c r="A16" s="50" t="s">
+      <c r="A16" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="57" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="2"/>
@@ -2272,8 +2317,8 @@
       <c r="AJ16" s="26"/>
     </row>
     <row r="17" spans="1:36" x14ac:dyDescent="0.4">
-      <c r="A17" s="51"/>
-      <c r="B17" s="43"/>
+      <c r="A17" s="64"/>
+      <c r="B17" s="59"/>
       <c r="C17" s="2"/>
       <c r="D17" s="18">
         <v>0.64583333333333337</v>
@@ -3199,29 +3244,29 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="R4:V4"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="R5:V6"/>
-    <mergeCell ref="R2:V2"/>
-    <mergeCell ref="R1:V1"/>
-    <mergeCell ref="R3:V3"/>
-    <mergeCell ref="F3:J3"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="L1:P1"/>
-    <mergeCell ref="L5:P5"/>
-    <mergeCell ref="L4:P4"/>
-    <mergeCell ref="L3:P3"/>
-    <mergeCell ref="L2:P2"/>
-    <mergeCell ref="L6:P6"/>
-    <mergeCell ref="L7:M7"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="B13:B15"/>
-    <mergeCell ref="F5:J5"/>
-    <mergeCell ref="F4:J4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A4:E4"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="B16:B17"/>
-    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="M4:Q4"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="M5:Q6"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="M3:Q3"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="G5:K5"/>
+    <mergeCell ref="G4:K4"/>
+    <mergeCell ref="G3:K3"/>
+    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="G6:K6"/>
+    <mergeCell ref="G7:H7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
@@ -3234,15 +3279,1093 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A0B3EFD-89B4-47B7-BBB1-07B40AB8DB5C}">
+  <dimension ref="A1:AJ83"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="R2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="B1" sqref="B1"/>
+      <selection pane="topRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="4" max="4" width="9" customWidth="1"/>
+    <col min="6" max="7" width="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:36" x14ac:dyDescent="0.4">
+      <c r="A1" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1" s="3">
+        <v>2</v>
+      </c>
+      <c r="H1" s="3">
+        <v>3</v>
+      </c>
+      <c r="I1" s="3">
+        <v>4</v>
+      </c>
+      <c r="J1" s="3">
+        <v>5</v>
+      </c>
+      <c r="K1" s="3">
+        <v>6</v>
+      </c>
+      <c r="L1" s="3">
+        <v>7</v>
+      </c>
+      <c r="M1" s="3">
+        <v>8</v>
+      </c>
+      <c r="N1" s="3">
+        <v>9</v>
+      </c>
+      <c r="O1" s="3">
+        <v>10</v>
+      </c>
+      <c r="P1" s="3">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="3">
+        <v>12</v>
+      </c>
+      <c r="R1" s="3">
+        <v>13</v>
+      </c>
+      <c r="S1" s="3">
+        <v>14</v>
+      </c>
+      <c r="T1" s="3">
+        <v>15</v>
+      </c>
+      <c r="U1" s="3">
+        <v>16</v>
+      </c>
+      <c r="V1" s="3">
+        <v>17</v>
+      </c>
+      <c r="W1" s="3">
+        <v>18</v>
+      </c>
+      <c r="X1" s="3">
+        <v>19</v>
+      </c>
+      <c r="Y1" s="3">
+        <v>20</v>
+      </c>
+      <c r="Z1" s="3">
+        <v>21</v>
+      </c>
+      <c r="AA1" s="3">
+        <v>22</v>
+      </c>
+      <c r="AB1" s="3">
+        <v>23</v>
+      </c>
+      <c r="AC1" s="3">
+        <v>24</v>
+      </c>
+      <c r="AD1" s="3">
+        <v>25</v>
+      </c>
+      <c r="AE1" s="3">
+        <v>26</v>
+      </c>
+      <c r="AF1" s="3">
+        <v>27</v>
+      </c>
+      <c r="AG1" s="3">
+        <v>28</v>
+      </c>
+      <c r="AH1" s="3">
+        <v>29</v>
+      </c>
+      <c r="AI1" s="3">
+        <v>30</v>
+      </c>
+      <c r="AJ1" s="3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.4">
+      <c r="A2" s="71"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="75"/>
+      <c r="N2" s="75"/>
+      <c r="O2" s="75"/>
+      <c r="P2" s="75"/>
+      <c r="Q2" s="76"/>
+      <c r="R2" s="76"/>
+      <c r="S2" s="76"/>
+      <c r="T2" s="75"/>
+      <c r="U2" s="75"/>
+      <c r="V2" s="75"/>
+      <c r="W2" s="75"/>
+      <c r="X2" s="75"/>
+      <c r="Y2" s="75"/>
+      <c r="Z2" s="75"/>
+      <c r="AA2" s="75"/>
+      <c r="AB2" s="75"/>
+      <c r="AC2" s="75"/>
+      <c r="AD2" s="75"/>
+      <c r="AE2" s="75"/>
+      <c r="AF2" s="75"/>
+      <c r="AG2" s="75"/>
+      <c r="AH2" s="75"/>
+      <c r="AI2" s="75"/>
+      <c r="AJ2" s="75"/>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.4">
+      <c r="A3" s="71"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="75"/>
+      <c r="K3" s="75"/>
+      <c r="L3" s="75"/>
+      <c r="M3" s="75"/>
+      <c r="N3" s="75"/>
+      <c r="O3" s="75"/>
+      <c r="P3" s="75"/>
+      <c r="Q3" s="76"/>
+      <c r="R3" s="76"/>
+      <c r="S3" s="76"/>
+      <c r="T3" s="75"/>
+      <c r="U3" s="75"/>
+      <c r="V3" s="75"/>
+      <c r="W3" s="75"/>
+      <c r="X3" s="75"/>
+      <c r="Y3" s="75"/>
+      <c r="Z3" s="75"/>
+      <c r="AA3" s="75"/>
+      <c r="AB3" s="75"/>
+      <c r="AC3" s="75"/>
+      <c r="AD3" s="75"/>
+      <c r="AE3" s="75"/>
+      <c r="AF3" s="75"/>
+      <c r="AG3" s="75"/>
+      <c r="AH3" s="75"/>
+      <c r="AI3" s="75"/>
+      <c r="AJ3" s="75"/>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.4">
+      <c r="A4" s="82"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78"/>
+      <c r="K4" s="78"/>
+      <c r="L4" s="78"/>
+      <c r="M4" s="78"/>
+      <c r="N4" s="78"/>
+      <c r="O4" s="78"/>
+      <c r="P4" s="78"/>
+      <c r="Q4" s="79"/>
+      <c r="R4" s="80"/>
+      <c r="S4" s="81"/>
+      <c r="T4" s="80"/>
+      <c r="U4" s="80"/>
+      <c r="V4" s="80"/>
+      <c r="W4" s="80"/>
+      <c r="X4" s="80"/>
+      <c r="Y4" s="80"/>
+      <c r="Z4" s="80"/>
+      <c r="AA4" s="80"/>
+      <c r="AB4" s="80"/>
+      <c r="AC4" s="80"/>
+      <c r="AD4" s="80"/>
+      <c r="AE4" s="80"/>
+      <c r="AF4" s="80"/>
+      <c r="AG4" s="80"/>
+      <c r="AH4" s="80"/>
+      <c r="AI4" s="80"/>
+      <c r="AJ4" s="80"/>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.4">
+      <c r="A5" s="82"/>
+      <c r="B5" s="83"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="80"/>
+      <c r="I5" s="80"/>
+      <c r="J5" s="80"/>
+      <c r="K5" s="80"/>
+      <c r="L5" s="78"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="78"/>
+      <c r="P5" s="78"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="78"/>
+      <c r="S5" s="78"/>
+      <c r="T5" s="78"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
+      <c r="W5" s="78"/>
+      <c r="X5" s="78"/>
+      <c r="Y5" s="80"/>
+      <c r="Z5" s="80"/>
+      <c r="AA5" s="80"/>
+      <c r="AB5" s="80"/>
+      <c r="AC5" s="80"/>
+      <c r="AD5" s="80"/>
+      <c r="AE5" s="80"/>
+      <c r="AF5" s="80"/>
+      <c r="AG5" s="80"/>
+      <c r="AH5" s="80"/>
+      <c r="AI5" s="80"/>
+      <c r="AJ5" s="80"/>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.4">
+      <c r="A6" s="82"/>
+      <c r="B6" s="83"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="78"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="78"/>
+      <c r="J6" s="78"/>
+      <c r="K6" s="78"/>
+      <c r="L6" s="80"/>
+      <c r="M6" s="80"/>
+      <c r="N6" s="80"/>
+      <c r="O6" s="80"/>
+      <c r="P6" s="80"/>
+      <c r="Q6" s="78"/>
+      <c r="R6" s="78"/>
+      <c r="S6" s="78"/>
+      <c r="T6" s="78"/>
+      <c r="U6" s="78"/>
+      <c r="V6" s="78"/>
+      <c r="W6" s="78"/>
+      <c r="X6" s="80"/>
+      <c r="Y6" s="80"/>
+      <c r="Z6" s="80"/>
+      <c r="AA6" s="80"/>
+      <c r="AB6" s="80"/>
+      <c r="AC6" s="80"/>
+      <c r="AD6" s="80"/>
+      <c r="AE6" s="80"/>
+      <c r="AF6" s="80"/>
+      <c r="AG6" s="80"/>
+      <c r="AH6" s="80"/>
+      <c r="AI6" s="80"/>
+      <c r="AJ6" s="80"/>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.4">
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="10"/>
+      <c r="W7" s="10"/>
+      <c r="X7" s="10"/>
+      <c r="Y7" s="10"/>
+      <c r="Z7" s="10"/>
+      <c r="AA7" s="10"/>
+      <c r="AB7" s="10"/>
+      <c r="AC7" s="10"/>
+      <c r="AD7" s="8"/>
+      <c r="AE7" s="8"/>
+      <c r="AF7" s="8"/>
+      <c r="AG7" s="8"/>
+      <c r="AH7" s="8"/>
+      <c r="AI7" s="8"/>
+      <c r="AJ7" s="8"/>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.4">
+      <c r="A8" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="9"/>
+      <c r="X8" s="9"/>
+      <c r="Y8" s="9"/>
+      <c r="Z8" s="8"/>
+      <c r="AA8" s="9"/>
+      <c r="AB8" s="8"/>
+      <c r="AC8" s="9"/>
+      <c r="AD8" s="9"/>
+      <c r="AE8" s="8"/>
+      <c r="AF8" s="8"/>
+      <c r="AG8" s="8"/>
+      <c r="AH8" s="8"/>
+      <c r="AI8" s="8"/>
+      <c r="AJ8" s="8"/>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.4">
+      <c r="A9" s="68"/>
+      <c r="B9" s="68"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="8"/>
+      <c r="X9" s="8"/>
+      <c r="Y9" s="8"/>
+      <c r="Z9" s="8"/>
+      <c r="AA9" s="8"/>
+      <c r="AB9" s="8"/>
+      <c r="AC9" s="8"/>
+      <c r="AD9" s="8"/>
+      <c r="AE9" s="8"/>
+      <c r="AF9" s="8"/>
+      <c r="AG9" s="8"/>
+      <c r="AH9" s="8"/>
+      <c r="AI9" s="8"/>
+      <c r="AJ9" s="8"/>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.4">
+      <c r="A10" s="68"/>
+      <c r="B10" s="68"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="8"/>
+      <c r="X10" s="8"/>
+      <c r="Y10" s="8"/>
+      <c r="Z10" s="8"/>
+      <c r="AA10" s="8"/>
+      <c r="AB10" s="8"/>
+      <c r="AC10" s="8"/>
+      <c r="AD10" s="8"/>
+      <c r="AE10" s="8"/>
+      <c r="AF10" s="8"/>
+      <c r="AG10" s="8"/>
+      <c r="AH10" s="8"/>
+      <c r="AI10" s="8"/>
+      <c r="AJ10" s="8"/>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.4">
+      <c r="A11" s="68"/>
+      <c r="B11" s="68"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="8"/>
+      <c r="X11" s="9"/>
+      <c r="Y11" s="8"/>
+      <c r="Z11" s="8"/>
+      <c r="AA11" s="8"/>
+      <c r="AB11" s="8"/>
+      <c r="AC11" s="8"/>
+      <c r="AD11" s="8"/>
+      <c r="AE11" s="8"/>
+      <c r="AF11" s="8"/>
+      <c r="AG11" s="8"/>
+      <c r="AH11" s="8"/>
+      <c r="AI11" s="8"/>
+      <c r="AJ11" s="8"/>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.4">
+      <c r="A12" s="68"/>
+      <c r="B12" s="68"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="8"/>
+      <c r="X12" s="9"/>
+      <c r="Y12" s="8"/>
+      <c r="Z12" s="8"/>
+      <c r="AA12" s="8"/>
+      <c r="AB12" s="8"/>
+      <c r="AC12" s="8"/>
+      <c r="AD12" s="8"/>
+      <c r="AE12" s="8"/>
+      <c r="AF12" s="8"/>
+      <c r="AG12" s="8"/>
+      <c r="AH12" s="8"/>
+      <c r="AI12" s="8"/>
+      <c r="AJ12" s="8"/>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.4">
+      <c r="A13" s="68"/>
+      <c r="B13" s="68"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="8"/>
+      <c r="X13" s="8"/>
+      <c r="Y13" s="8"/>
+      <c r="Z13" s="8"/>
+      <c r="AA13" s="8"/>
+      <c r="AB13" s="8"/>
+      <c r="AC13" s="8"/>
+      <c r="AD13" s="8"/>
+      <c r="AE13" s="8"/>
+      <c r="AF13" s="8"/>
+      <c r="AG13" s="8"/>
+      <c r="AH13" s="8"/>
+      <c r="AI13" s="8"/>
+      <c r="AJ13" s="8"/>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.4">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="12"/>
+      <c r="X14" s="8"/>
+      <c r="Y14" s="8"/>
+      <c r="Z14" s="8"/>
+      <c r="AA14" s="8"/>
+      <c r="AB14" s="8"/>
+      <c r="AC14" s="8"/>
+      <c r="AD14" s="12"/>
+      <c r="AE14" s="8"/>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.4">
+      <c r="A15" s="8"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="13"/>
+      <c r="X15" s="13"/>
+      <c r="Y15" s="13"/>
+      <c r="Z15" s="8"/>
+      <c r="AA15" s="13"/>
+      <c r="AB15" s="8"/>
+      <c r="AC15" s="13"/>
+      <c r="AD15" s="13"/>
+      <c r="AE15" s="13"/>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.4">
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="13"/>
+      <c r="V16" s="13"/>
+      <c r="W16" s="13"/>
+      <c r="X16" s="13"/>
+      <c r="Y16" s="13"/>
+      <c r="Z16" s="13"/>
+      <c r="AA16" s="13"/>
+      <c r="AB16" s="13"/>
+      <c r="AC16" s="13"/>
+      <c r="AD16" s="13"/>
+      <c r="AE16" s="13"/>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="9"/>
+      <c r="V17" s="9"/>
+      <c r="W17" s="9"/>
+      <c r="X17" s="9"/>
+      <c r="Y17" s="9"/>
+      <c r="Z17" s="9"/>
+      <c r="AA17" s="9"/>
+      <c r="AB17" s="9"/>
+      <c r="AC17" s="9"/>
+      <c r="AD17" s="9"/>
+      <c r="AE17" s="9"/>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="10"/>
+      <c r="V18" s="10"/>
+      <c r="W18" s="10"/>
+      <c r="X18" s="10"/>
+      <c r="Y18" s="10"/>
+      <c r="Z18" s="8"/>
+      <c r="AA18" s="8"/>
+      <c r="AB18" s="8"/>
+      <c r="AC18" s="8"/>
+      <c r="AD18" s="8"/>
+      <c r="AE18" s="8"/>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="C21" s="14"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="C22" s="14"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="C23" s="14"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="C24" s="14"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="C25" s="14"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="G25" s="14"/>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="C26" s="14"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="C27" s="14"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="C28" s="14"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="C29" s="14"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+    </row>
+    <row r="30" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="C30" s="14"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="C31" s="14"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+    </row>
+    <row r="32" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="C32" s="14"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+    </row>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C33" s="14"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+    </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C34" s="14"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+    </row>
+    <row r="35" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C35" s="14"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+    </row>
+    <row r="36" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C36" s="14"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+    </row>
+    <row r="37" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C37" s="14"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+    </row>
+    <row r="38" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C38" s="14"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+    </row>
+    <row r="39" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C39" s="14"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+    </row>
+    <row r="40" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C40" s="14"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+    </row>
+    <row r="41" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C41" s="14"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+    </row>
+    <row r="42" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C42" s="14"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+    </row>
+    <row r="43" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C43" s="14"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+    </row>
+    <row r="44" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C44" s="14"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+    </row>
+    <row r="45" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C45" s="14"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+    </row>
+    <row r="46" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C46" s="14"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+    </row>
+    <row r="47" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C47" s="14"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+    </row>
+    <row r="48" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C48" s="14"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+    </row>
+    <row r="49" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C49" s="14"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+    </row>
+    <row r="50" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C50" s="14"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+    </row>
+    <row r="51" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C51" s="14"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+    </row>
+    <row r="52" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C52" s="14"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+    </row>
+    <row r="53" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C53" s="14"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+    </row>
+    <row r="54" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C54" s="14"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+    </row>
+    <row r="55" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C55" s="14"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+    </row>
+    <row r="56" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C56" s="14"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+    </row>
+    <row r="57" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C57" s="14"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+    </row>
+    <row r="58" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C58" s="14"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+    </row>
+    <row r="59" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C59" s="14"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+    </row>
+    <row r="60" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C60" s="14"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+    </row>
+    <row r="61" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C61" s="14"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+    </row>
+    <row r="62" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C62" s="14"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
+    </row>
+    <row r="63" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C63" s="14"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+    </row>
+    <row r="64" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C64" s="14"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
+    </row>
+    <row r="65" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C65" s="14"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="6"/>
+    </row>
+    <row r="66" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C66" s="14"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
+    </row>
+    <row r="67" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C67" s="14"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
+    </row>
+    <row r="68" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C68" s="14"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6"/>
+    </row>
+    <row r="69" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C69" s="14"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
+    </row>
+    <row r="70" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C70" s="14"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="6"/>
+    </row>
+    <row r="71" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C71" s="14"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
+    </row>
+    <row r="72" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C72" s="14"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="6"/>
+    </row>
+    <row r="73" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C73" s="14"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
+    </row>
+    <row r="74" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C74" s="14"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="6"/>
+    </row>
+    <row r="75" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C75" s="14"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="6"/>
+    </row>
+    <row r="76" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C76" s="14"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="6"/>
+    </row>
+    <row r="77" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C77" s="14"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="6"/>
+    </row>
+    <row r="78" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C78" s="14"/>
+      <c r="D78" s="6"/>
+      <c r="E78" s="6"/>
+    </row>
+    <row r="79" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C79" s="14"/>
+      <c r="D79" s="6"/>
+      <c r="E79" s="6"/>
+    </row>
+    <row r="80" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C80" s="14"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="6"/>
+    </row>
+    <row r="81" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C81" s="14"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="6"/>
+    </row>
+    <row r="82" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C82" s="14"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="6"/>
+    </row>
+    <row r="83" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C83" s="14"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="6"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4259101-AFE4-4231-B5CC-394AA0655F98}">
   <dimension ref="A1:AJ86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomRight" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
